--- a/Estimation,planning,metrics(Task).xlsx
+++ b/Estimation,planning,metrics(Task).xlsx
@@ -5,20 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\roma\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\roma\Tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C1C330-92C6-43EC-95D9-E2B2C556B865}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557707FE-8F34-43F5-8A0A-100B5C9AB89B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="3" xr2:uid="{30FD3CF3-72EB-4FB1-BEC3-467D9474375F}"/>
   </bookViews>
   <sheets>
     <sheet name="Decomposition" sheetId="3" r:id="rId1"/>
-    <sheet name="Expert review" sheetId="4" r:id="rId2"/>
+    <sheet name="Estimation" sheetId="4" r:id="rId2"/>
     <sheet name="Activity planning" sheetId="2" r:id="rId3"/>
     <sheet name="Metrics" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="179021" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="74">
   <si>
     <t>Assessment of the volume and complexity of work</t>
   </si>
@@ -160,9 +160,6 @@
   </si>
   <si>
     <t>Coordination of testing activities with the activities of project team members involved in other tasks</t>
-  </si>
-  <si>
-    <t>Test plan</t>
   </si>
   <si>
     <t>Activities</t>
@@ -252,12 +249,27 @@
   <si>
     <t>33,3</t>
   </si>
+  <si>
+    <t>Test closure activities</t>
+  </si>
+  <si>
+    <t>Expert review</t>
+  </si>
+  <si>
+    <t>3 points</t>
+  </si>
+  <si>
+    <t>E = (7 + 4*3 + 10) / 6</t>
+  </si>
+  <si>
+    <t>E = (a + 4m + b) / 6</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,8 +331,33 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -342,8 +379,14 @@
         <fgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -431,14 +474,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -448,12 +501,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
@@ -485,9 +532,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -497,20 +562,26 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="20% - Accent1" xfId="4" builtinId="30"/>
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Input" xfId="3" builtinId="20"/>
@@ -890,204 +961,239 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55DF9662-9454-4A33-A770-2E92076BD6CA}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="60.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="D1" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="30"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="D2" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="15"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="D3" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="15"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B16" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B17" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B18" s="7" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B20" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B21" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B22" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B23" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B24" s="5" t="s">
         <v>38</v>
       </c>
     </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="34"/>
+      <c r="B26" s="34"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="31"/>
+      <c r="B27" s="32"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="33"/>
+      <c r="B28" s="32"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1096,30 +1202,30 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" style="13" customWidth="1"/>
-    <col min="2" max="2" width="60.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="60.7109375" style="3" customWidth="1"/>
     <col min="3" max="3" width="2" bestFit="1" customWidth="1"/>
     <col min="4" max="10" width="2.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="15" t="s">
+    <row r="1" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>45</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1127,7 +1233,7 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1135,7 +1241,7 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1143,7 +1249,7 @@
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1151,7 +1257,7 @@
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1159,7 +1265,7 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1167,8 +1273,8 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>44</v>
+      <c r="B8" s="10" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1186,263 +1292,263 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="9.140625" style="13"/>
+    <col min="6" max="6" width="9.140625" style="11"/>
     <col min="7" max="7" width="59.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
       <c r="D1" s="20"/>
-      <c r="E1" s="22"/>
+      <c r="E1" s="26"/>
       <c r="F1" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1" s="27" t="s">
-        <v>64</v>
+        <v>59</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="23"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="27"/>
       <c r="F2" s="20"/>
-      <c r="G2" s="5"/>
+      <c r="G2" s="24"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
       <c r="B3" s="20"/>
       <c r="C3" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="24" t="s">
         <v>51</v>
       </c>
+      <c r="E3" s="18" t="s">
+        <v>50</v>
+      </c>
       <c r="F3" s="20"/>
-      <c r="G3" s="5"/>
+      <c r="G3" s="24"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="16">
+        <v>15</v>
+      </c>
+      <c r="C4" s="16">
+        <v>10</v>
+      </c>
+      <c r="D4" s="16">
+        <v>5</v>
+      </c>
+      <c r="E4" s="19">
+        <v>0</v>
+      </c>
+      <c r="F4" s="16"/>
+      <c r="G4" s="24"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="18">
-        <v>15</v>
-      </c>
-      <c r="C4" s="18">
-        <v>10</v>
-      </c>
-      <c r="D4" s="18">
+      <c r="B5" s="16">
+        <v>8</v>
+      </c>
+      <c r="C5" s="16">
         <v>5</v>
       </c>
-      <c r="E4" s="25">
+      <c r="D5" s="16">
+        <v>2</v>
+      </c>
+      <c r="E5" s="19">
         <v>0</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="F5" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="24"/>
+    </row>
+    <row r="6" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="16">
+        <v>6</v>
+      </c>
+      <c r="C6" s="16">
+        <v>3</v>
+      </c>
+      <c r="D6" s="16">
+        <v>3</v>
+      </c>
+      <c r="E6" s="19">
+        <v>0</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="24"/>
+    </row>
+    <row r="7" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="18">
-        <v>8</v>
-      </c>
-      <c r="C5" s="18">
+      <c r="B7" s="16">
+        <v>7</v>
+      </c>
+      <c r="C7" s="16">
         <v>5</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D7" s="16">
         <v>2</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E7" s="19">
         <v>0</v>
       </c>
-      <c r="F5" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="18">
-        <v>6</v>
-      </c>
-      <c r="C6" s="18">
-        <v>3</v>
-      </c>
-      <c r="D6" s="18">
-        <v>3</v>
-      </c>
-      <c r="E6" s="25">
-        <v>0</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="18">
-        <v>7</v>
-      </c>
-      <c r="C7" s="18">
-        <v>5</v>
-      </c>
-      <c r="D7" s="18">
-        <v>2</v>
-      </c>
-      <c r="E7" s="25">
-        <v>0</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="5"/>
+      <c r="F7" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="24"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
       <c r="F8" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="G8" s="26" t="s">
-        <v>68</v>
+        <v>59</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
+      <c r="C9" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
       <c r="F9" s="20"/>
-      <c r="G9" s="3"/>
+      <c r="G9" s="22"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="20"/>
       <c r="B10" s="20"/>
       <c r="C10" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F10" s="20"/>
-      <c r="G10" s="3"/>
+      <c r="G10" s="22"/>
     </row>
     <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="16">
+        <v>3</v>
+      </c>
+      <c r="C11" s="16">
+        <v>2</v>
+      </c>
+      <c r="D11" s="16">
+        <v>1</v>
+      </c>
+      <c r="E11" s="16">
+        <v>0</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="22"/>
+    </row>
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B12" s="16">
+        <v>2</v>
+      </c>
+      <c r="C12" s="16">
+        <v>1</v>
+      </c>
+      <c r="D12" s="16">
+        <v>1</v>
+      </c>
+      <c r="E12" s="16">
+        <v>0</v>
+      </c>
+      <c r="F12" s="16">
+        <v>250</v>
+      </c>
+      <c r="G12" s="22"/>
+    </row>
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="16">
+        <v>1</v>
+      </c>
+      <c r="C13" s="16">
+        <v>1</v>
+      </c>
+      <c r="D13" s="16">
+        <v>0</v>
+      </c>
+      <c r="E13" s="16">
+        <v>0</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="22"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="16">
+        <v>4</v>
+      </c>
+      <c r="C14" s="16">
         <v>3</v>
       </c>
-      <c r="C11" s="18">
-        <v>2</v>
-      </c>
-      <c r="D11" s="18">
+      <c r="D14" s="16">
         <v>1</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E14" s="19">
         <v>0</v>
       </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="18">
-        <v>2</v>
-      </c>
-      <c r="C12" s="18">
-        <v>1</v>
-      </c>
-      <c r="D12" s="18">
-        <v>1</v>
-      </c>
-      <c r="E12" s="18">
-        <v>0</v>
-      </c>
-      <c r="F12" s="18">
+      <c r="F14" s="16">
         <v>250</v>
       </c>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="18">
-        <v>1</v>
-      </c>
-      <c r="C13" s="18">
-        <v>1</v>
-      </c>
-      <c r="D13" s="18">
-        <v>0</v>
-      </c>
-      <c r="E13" s="18">
-        <v>0</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="18">
-        <v>4</v>
-      </c>
-      <c r="C14" s="18">
-        <v>3</v>
-      </c>
-      <c r="D14" s="18">
-        <v>1</v>
-      </c>
-      <c r="E14" s="25">
-        <v>0</v>
-      </c>
-      <c r="F14" s="18">
-        <v>250</v>
-      </c>
-      <c r="G14" s="17"/>
+      <c r="G14" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/Estimation,planning,metrics(Task).xlsx
+++ b/Estimation,planning,metrics(Task).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\roma\Tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557707FE-8F34-43F5-8A0A-100B5C9AB89B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377921BA-6642-4145-8D36-BEC2EFD7629C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="3" xr2:uid="{30FD3CF3-72EB-4FB1-BEC3-467D9474375F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{30FD3CF3-72EB-4FB1-BEC3-467D9474375F}"/>
   </bookViews>
   <sheets>
     <sheet name="Decomposition" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="73">
   <si>
     <t>Assessment of the volume and complexity of work</t>
   </si>
@@ -220,17 +220,6 @@
   </si>
   <si>
     <t xml:space="preserve">Decline </t>
-  </si>
-  <si>
-    <t>Decline Rate =  (Decline Issues/Closed Issues)*100 %
-Decline Rate  = (7/15)*100%
-Reopen  Rate =(Reopen Bugs+Closed Bugs) /Reopen Bugs *100%
-Reopen  Rate =((8+15)/8)*100%
-Blocked Rate = (Total/Blocked)*100%
-Blocked Rate= (98/11)*100%</t>
-  </si>
-  <si>
-    <t>46,6</t>
   </si>
   <si>
     <t>287,5</t>
@@ -259,10 +248,18 @@
     <t>3 points</t>
   </si>
   <si>
-    <t>E = (7 + 4*3 + 10) / 6</t>
-  </si>
-  <si>
     <t>E = (a + 4m + b) / 6</t>
+  </si>
+  <si>
+    <t>E = (7 + 4*3 + 10) / 6 = 4,8</t>
+  </si>
+  <si>
+    <t>Decline Rate =  (Decline Issues/Closed Issues)*100 %
+Decline Rate  = (7/15)*100%
+Reopen  Rate =(Reopen Bugs+Closed Bugs) /Reopen Bugs *100%
+Reopen  Rate =((8+15)/8)*100%
+Blocked Rate = (Total/Blocked)*100%
+Blocked Rate= (36/6)*100%</t>
   </si>
 </sst>
 </file>
@@ -538,30 +535,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -573,10 +546,34 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -948,7 +945,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2AAC4B-EC5E-4A95-918E-78F9BA84F3DF}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
@@ -964,25 +961,25 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="60.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="D1" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="E1" s="30"/>
+      <c r="A1" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="D1" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -991,8 +988,8 @@
       <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="29" t="s">
-        <v>73</v>
+      <c r="D2" s="21" t="s">
+        <v>70</v>
       </c>
       <c r="E2" s="15"/>
     </row>
@@ -1003,8 +1000,8 @@
       <c r="B3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="28" t="s">
-        <v>72</v>
+      <c r="D3" s="20" t="s">
+        <v>71</v>
       </c>
       <c r="E3" s="15"/>
     </row>
@@ -1177,16 +1174,16 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="34"/>
-      <c r="B26" s="34"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="31"/>
-      <c r="B27" s="32"/>
+      <c r="A27" s="23"/>
+      <c r="B27" s="24"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="33"/>
-      <c r="B28" s="32"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1274,7 +1271,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1286,8 +1283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65552AAF-2CC6-45CD-8C9D-705848F765C3}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1297,38 +1294,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="20" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="23" t="s">
-        <v>63</v>
+      <c r="G1" s="32" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="24"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="33"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="1" t="s">
         <v>52</v>
       </c>
@@ -1338,8 +1335,8 @@
       <c r="E3" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="24"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="33"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
@@ -1358,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="16"/>
-      <c r="G4" s="24"/>
+      <c r="G4" s="33"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
@@ -1371,15 +1368,15 @@
         <v>5</v>
       </c>
       <c r="D5" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5" s="19">
         <v>0</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" s="24"/>
+        <v>63</v>
+      </c>
+      <c r="G5" s="33"/>
     </row>
     <row r="6" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
@@ -1398,9 +1395,9 @@
         <v>0</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G6" s="24"/>
+        <v>64</v>
+      </c>
+      <c r="G6" s="33"/>
     </row>
     <row r="7" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
@@ -1418,44 +1415,44 @@
       <c r="E7" s="19">
         <v>0</v>
       </c>
-      <c r="F7" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="G7" s="24"/>
+      <c r="F7" s="16">
+        <v>600</v>
+      </c>
+      <c r="G7" s="33"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20" t="s">
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="21" t="s">
-        <v>67</v>
+      <c r="G8" s="30" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="22"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="31"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
       <c r="C10" s="1" t="s">
         <v>52</v>
       </c>
@@ -1465,8 +1462,8 @@
       <c r="E10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="22"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="31"/>
     </row>
     <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
@@ -1485,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="16"/>
-      <c r="G11" s="22"/>
+      <c r="G11" s="31"/>
     </row>
     <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
@@ -1506,7 +1503,7 @@
       <c r="F12" s="16">
         <v>250</v>
       </c>
-      <c r="G12" s="22"/>
+      <c r="G12" s="31"/>
     </row>
     <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
@@ -1525,9 +1522,9 @@
         <v>0</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" s="22"/>
+        <v>66</v>
+      </c>
+      <c r="G13" s="31"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
